--- a/biology/Zoologie/Anolis_equestris/Anolis_equestris.xlsx
+++ b/biology/Zoologie/Anolis_equestris/Anolis_equestris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis equestris, l'Anolis chevalier, est une espèce de sauriens de la famille des Dactyloidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis equestris, l'Anolis chevalier, est une espèce de sauriens de la famille des Dactyloidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originellement endémique de Cuba[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originellement endémique de Cuba.
 Elle a été introduite en Floride et à Hawaï aux États-Unis.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est le plus grand représentant de la famille des Dactyloidae, pouvant atteindre 50 cm avec une queue faisait un tiers du corps. Il a un aspect élancé, avec une tête fine, longue, et un museau assez pointu. Les yeux sont proéminents. Ces lézards sont capables de sauter à des longueurs de l'ordre de 50 cm et en moyenne pèsent environ 50 g[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le plus grand représentant de la famille des Dactyloidae, pouvant atteindre 50 cm avec une queue faisait un tiers du corps. Il a un aspect élancé, avec une tête fine, longue, et un museau assez pointu. Les yeux sont proéminents. Ces lézards sont capables de sauter à des longueurs de l'ordre de 50 cm et en moyenne pèsent environ 50 g.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un animal diurne et arboricole, qui chasse divers insectes et autres arthropodes mais peut aussi chasser de petits reptiles et de petits mammifères.
 </t>
@@ -605,9 +623,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (3 janvier 2013)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (3 janvier 2013) :
 Anolis equestris brujensis Garrido, 2001
 Anolis equestris buidei Schwartz &amp; Garrido, 1972
 Anolis equestris cincoleguas Garrido, 1981
@@ -646,7 +666,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Garrido, 1981 : Nueva subespecie de Anolis equestris (Sauria: Iguanidae) para Cuba, con comentarios sobre la distribución y afinidades de otras poblaciones del complejo. Poeyana, no 232, p. 1-15.
 Garrido, Moreno &amp; Estrada, 2001 : Subespecies nuevas de reptiles del complejo Anolis equestris (Lacertilia: Iguanidae) para los cayos Las Brujas y Sabinal, Archipelago deSabana-Camaguey, Cuba. Solenodon, vol. 1, p. 55-65.
